--- a/uploads/userdetails.xlsx
+++ b/uploads/userdetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EAE53E-968F-429F-9129-6BCB2783BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD60B3-B4F5-43E8-BC0D-39125ECD84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B2E2C8E-08EE-438F-A80F-FFF6C53D17AB}"/>
+    <workbookView xWindow="8016" yWindow="684" windowWidth="15024" windowHeight="8880" xr2:uid="{8B2E2C8E-08EE-438F-A80F-FFF6C53D17AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Worker</t>
   </si>
   <si>
-    <t>jbsdasjbd@gmail.com</t>
-  </si>
-  <si>
-    <t>pusdadasd@gmail.com</t>
-  </si>
-  <si>
-    <t>pusssdadspaj@gmail.com</t>
+    <t>jbsdsasjbd@gmail.com</t>
+  </si>
+  <si>
+    <t>pusdasadasd@gmail.com</t>
+  </si>
+  <si>
+    <t>pusssdasadspaj@gmail.com</t>
   </si>
 </sst>
 </file>
